--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -414,7 +414,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -112,7 +112,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +419,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,36 +430,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -431,13 +431,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -445,21 +445,21 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -419,7 +419,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" customHeight="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="100" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -441,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    <row r="3" spans="1:3" ht="100" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -452,7 +452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:3" ht="100" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>名称</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>时间</t>
   </si>
   <si>
     <t>name 0</t>
@@ -56,6 +59,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -106,9 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,9 +426,10 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,38 +439,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="100" customHeight="1">
+    <row r="2" spans="1:4" ht="100" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43906.71645688568</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="100" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+    <row r="3" spans="1:4" ht="100" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43906.7164568858</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="100" customHeight="1">
+    <row r="4" spans="1:4" ht="100" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43906.71645688582</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>43906.71645688568</v>
+        <v>43906.71918451162</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="100" customHeight="1">
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>43906.7164568858</v>
+        <v>43906.71918451173</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="100" customHeight="1">
@@ -482,7 +482,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>43906.71645688582</v>
+        <v>43906.71918451176</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>43906.71918451162</v>
+        <v>43906.73940632528</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="100" customHeight="1">
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>43906.71918451173</v>
+        <v>43906.7394063254</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="100" customHeight="1">
@@ -482,7 +482,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>43906.71918451176</v>
+        <v>43906.73940632543</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>名称</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>时间</t>
+  </si>
+  <si>
+    <t>图片</t>
   </si>
   <si>
     <t>name 0</t>
@@ -130,6 +133,125 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="image.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="190500"/>
+          <a:ext cx="1095375" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="image.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="1457325"/>
+          <a:ext cx="1095375" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="image.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="2724150"/>
+          <a:ext cx="1095375" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,9 +549,10 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,50 +565,54 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="100" customHeight="1">
+    <row r="2" spans="1:5" ht="100" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>43906.73940632528</v>
+        <v>43906.7533412285</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="100" customHeight="1">
+    <row r="3" spans="1:5" ht="100" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>43906.7394063254</v>
+        <v>43906.75334122856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="100" customHeight="1">
+    <row r="4" spans="1:5" ht="100" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>43906.73940632543</v>
+        <v>43906.75334122858</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>43906.7533412285</v>
+        <v>43906.75372379326</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100" customHeight="1">
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>43906.75334122856</v>
+        <v>43906.75372379353</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="100" customHeight="1">
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>43906.75334122858</v>
+        <v>43906.75372379355</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>43906.75372379326</v>
+        <v>43906.86309565031</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100" customHeight="1">
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>43906.75372379353</v>
+        <v>43906.86309565041</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="100" customHeight="1">
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>43906.75372379355</v>
+        <v>43906.86309565043</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>43906.86309565031</v>
+        <v>43906.94858566839</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100" customHeight="1">
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>43906.86309565041</v>
+        <v>43906.94858566852</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="100" customHeight="1">
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>43906.86309565043</v>
+        <v>43906.94858566854</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>43906.94858566839</v>
+        <v>43906.97712971977</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100" customHeight="1">
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>43906.94858566852</v>
+        <v>43906.97712971985</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="100" customHeight="1">
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>43906.94858566854</v>
+        <v>43906.97712971987</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>43906.97712971977</v>
+        <v>43907.73218315455</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100" customHeight="1">
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>43906.97712971985</v>
+        <v>43907.73218315464</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="100" customHeight="1">
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>43906.97712971987</v>
+        <v>43907.73218315467</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>43907.73218315455</v>
+        <v>43907.75741167799</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100" customHeight="1">
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>43907.73218315464</v>
+        <v>43907.75741167809</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="100" customHeight="1">
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>43907.73218315467</v>
+        <v>43907.75741167811</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -545,11 +545,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -580,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>43907.75741167799</v>
+        <v>45205.61624725109</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100" customHeight="1">
@@ -594,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>43907.75741167809</v>
+        <v>45205.61624725114</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="100" customHeight="1">
@@ -608,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>43907.75741167811</v>
+        <v>45205.61624725116</v>
       </c>
     </row>
   </sheetData>

--- a/tests/__snapshots__/table.xlsx
+++ b/tests/__snapshots__/table.xlsx
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>45205.61624725109</v>
+        <v>45875.80224571651</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100" customHeight="1">
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>45205.61624725114</v>
+        <v>45875.80224571656</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="100" customHeight="1">
@@ -604,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>45205.61624725116</v>
+        <v>45875.80224571659</v>
       </c>
     </row>
   </sheetData>
